--- a/scalpel/typeinfer/evaluation/evaluation_outputs/facebookresearch__Detectron.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/facebookresearch__Detectron.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2105"/>
+  <dimension ref="A1:F2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,9 +1219,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[None]'}</t>
+          <t>{'List[None]', 'empty'}</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[None]</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -5984,12 +5984,12 @@
       </c>
       <c r="E173" s="2" t="inlineStr">
         <is>
-          <t>{'Any', 'dict', 'AttrDict'}</t>
-        </is>
-      </c>
-      <c r="F173" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'dict', 'AttrDict', 'Any'}</t>
+        </is>
+      </c>
+      <c r="F173" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="F174" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>dict</t>
+        </is>
+      </c>
+      <c r="F174" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -8448,12 +8448,12 @@
       </c>
       <c r="E250" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'empty', 'float'}</t>
-        </is>
-      </c>
-      <c r="F250" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'float', 'any', 'empty'}</t>
+        </is>
+      </c>
+      <c r="F250" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -8480,12 +8480,12 @@
       </c>
       <c r="E251" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F251" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F251" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -9027,9 +9027,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F268" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F268" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="E471" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
+          <t>{'str', 'any'}</t>
         </is>
       </c>
       <c r="F471" s="5" t="inlineStr">
@@ -15552,12 +15552,12 @@
       </c>
       <c r="E472" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F472" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F472" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -15971,9 +15971,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F485" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F485" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -16035,9 +16035,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F487" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F487" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -16163,9 +16163,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F491" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F491" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -17315,9 +17315,9 @@
           <t>{'any', 'NoneType'}</t>
         </is>
       </c>
-      <c r="F527" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F527" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -17507,9 +17507,9 @@
           <t>{'any', 'NoneType'}</t>
         </is>
       </c>
-      <c r="F533" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F533" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="E539" s="2" t="inlineStr">
         <is>
-          <t>{'Dict[str, None]', 'empty'}</t>
+          <t>{'empty', 'Dict[str, None]'}</t>
         </is>
       </c>
       <c r="F539" s="5" t="inlineStr">
@@ -17728,12 +17728,12 @@
       </c>
       <c r="E540" s="2" t="inlineStr">
         <is>
-          <t>Dict[str, None]</t>
-        </is>
-      </c>
-      <c r="F540" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F540" s="3" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -17763,9 +17763,9 @@
           <t>{'any', 'NoneType'}</t>
         </is>
       </c>
-      <c r="F541" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F541" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -19747,9 +19747,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F603" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F603" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -20480,7 +20480,7 @@
       </c>
       <c r="E626" s="2" t="inlineStr">
         <is>
-          <t>{'OrderedDict', 'empty'}</t>
+          <t>{'empty', 'OrderedDict'}</t>
         </is>
       </c>
       <c r="F626" s="5" t="inlineStr">
@@ -20512,12 +20512,12 @@
       </c>
       <c r="E627" s="2" t="inlineStr">
         <is>
-          <t>OrderedDict</t>
-        </is>
-      </c>
-      <c r="F627" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F627" s="3" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -21856,7 +21856,7 @@
       </c>
       <c r="E669" s="2" t="inlineStr">
         <is>
-          <t>{'dict', 'empty'}</t>
+          <t>{'empty', 'dict'}</t>
         </is>
       </c>
       <c r="F669" s="5" t="inlineStr">
@@ -21888,12 +21888,12 @@
       </c>
       <c r="E670" s="2" t="inlineStr">
         <is>
-          <t>dict</t>
-        </is>
-      </c>
-      <c r="F670" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F670" s="3" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -22560,12 +22560,12 @@
       </c>
       <c r="E691" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'float'}</t>
-        </is>
-      </c>
-      <c r="F691" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'float', 'any'}</t>
+        </is>
+      </c>
+      <c r="F691" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -22592,12 +22592,12 @@
       </c>
       <c r="E692" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F692" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F692" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -23488,12 +23488,12 @@
       </c>
       <c r="E720" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'tuple', 'empty'}</t>
-        </is>
-      </c>
-      <c r="F720" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'tuple', 'any', 'empty'}</t>
+        </is>
+      </c>
+      <c r="F720" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -23520,12 +23520,12 @@
       </c>
       <c r="E721" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F721" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>tuple</t>
+        </is>
+      </c>
+      <c r="F721" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -23619,9 +23619,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F724" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F724" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -24131,9 +24131,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F740" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F740" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -46499,9 +46499,9 @@
           <t>{'any', 'bool'}</t>
         </is>
       </c>
-      <c r="F1439" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F1439" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -46979,9 +46979,9 @@
           <t>{'any', 'bool'}</t>
         </is>
       </c>
-      <c r="F1454" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F1454" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -47939,9 +47939,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F1484" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F1484" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -48512,7 +48512,7 @@
       </c>
       <c r="E1502" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[str]'}</t>
+          <t>{'List[str]', 'empty'}</t>
         </is>
       </c>
       <c r="F1502" s="5" t="inlineStr">
@@ -48544,12 +48544,12 @@
       </c>
       <c r="E1503" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1503" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[str]</t>
+        </is>
+      </c>
+      <c r="F1503" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -48576,7 +48576,7 @@
       </c>
       <c r="E1504" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1504" s="5" t="inlineStr">
@@ -48608,12 +48608,12 @@
       </c>
       <c r="E1505" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F1505" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F1505" s="3" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -54467,9 +54467,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F1688" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F1688" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -55491,9 +55491,9 @@
           <t>{'any', 'int'}</t>
         </is>
       </c>
-      <c r="F1720" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F1720" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -56131,9 +56131,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F1740" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F1740" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -57411,9 +57411,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F1780" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F1780" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -57667,9 +57667,9 @@
           <t>{'any', 'int'}</t>
         </is>
       </c>
-      <c r="F1788" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F1788" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -60076,7 +60076,7 @@
       </c>
       <c r="E1864" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Dict[any, any]'}</t>
+          <t>{'Dict[any, any]', 'any'}</t>
         </is>
       </c>
       <c r="F1864" s="5" t="inlineStr">
@@ -60108,12 +60108,12 @@
       </c>
       <c r="E1865" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F1865" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Dict[any, any]</t>
+        </is>
+      </c>
+      <c r="F1865" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -60268,7 +60268,7 @@
       </c>
       <c r="E1870" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1870" s="5" t="inlineStr">
@@ -60300,12 +60300,12 @@
       </c>
       <c r="E1871" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F1871" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F1871" s="3" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -62155,9 +62155,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F1929" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F1929" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -62728,7 +62728,7 @@
       </c>
       <c r="E1947" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool', 'empty'}</t>
+          <t>{'any', 'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1947" s="5" t="inlineStr">
@@ -63240,7 +63240,7 @@
       </c>
       <c r="E1963" s="2" t="inlineStr">
         <is>
-          <t>{'List[any]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'List[any]'}</t>
         </is>
       </c>
       <c r="F1963" s="3" t="inlineStr">
@@ -63272,7 +63272,7 @@
       </c>
       <c r="E1964" s="2" t="inlineStr">
         <is>
-          <t>List[any]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F1964" s="3" t="inlineStr">
@@ -67744,7 +67744,7 @@
         </is>
       </c>
       <c r="D2104" s="2" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2104" s="2" t="inlineStr">
         <is>
@@ -67752,21 +67752,35 @@
         </is>
       </c>
       <c r="F2104" s="2" t="n">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2105">
       <c r="A2105" s="2" t="inlineStr"/>
       <c r="B2105" s="2" t="inlineStr"/>
-      <c r="C2105" s="2" t="inlineStr"/>
-      <c r="D2105" s="2" t="inlineStr"/>
-      <c r="E2105" s="2" t="inlineStr">
+      <c r="C2105" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D2105" s="2" t="n">
+        <v>910.58</v>
+      </c>
+      <c r="E2105" s="2" t="inlineStr"/>
+      <c r="F2105" s="2" t="inlineStr"/>
+    </row>
+    <row r="2106">
+      <c r="A2106" s="2" t="inlineStr"/>
+      <c r="B2106" s="2" t="inlineStr"/>
+      <c r="C2106" s="2" t="inlineStr"/>
+      <c r="D2106" s="2" t="inlineStr"/>
+      <c r="E2106" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F2105" s="2" t="n">
-        <v>56.99999999999999</v>
+      <c r="F2106" s="2" t="n">
+        <v>70.19</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/facebookresearch__Detectron.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/facebookresearch__Detectron.xlsx
@@ -4576,7 +4576,7 @@
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[any]'}</t>
+          <t>{'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F129" s="5" t="inlineStr">
@@ -4608,12 +4608,12 @@
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F130" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F130" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="E173" s="2" t="inlineStr">
         <is>
-          <t>{'dict', 'AttrDict', 'Any'}</t>
+          <t>{'dict', 'Any', 'AttrDict'}</t>
         </is>
       </c>
       <c r="F173" s="4" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="E250" s="2" t="inlineStr">
         <is>
-          <t>{'float', 'any', 'empty'}</t>
+          <t>{'any', 'empty', 'float'}</t>
         </is>
       </c>
       <c r="F250" s="4" t="inlineStr">
@@ -8480,12 +8480,12 @@
       </c>
       <c r="E251" s="2" t="inlineStr">
         <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F251" s="4" t="inlineStr">
-        <is>
-          <t>Win</t>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="F251" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="E272" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'list'}</t>
+          <t>{'list', 'empty'}</t>
         </is>
       </c>
       <c r="F272" s="5" t="inlineStr">
@@ -9184,12 +9184,12 @@
       </c>
       <c r="E273" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F273" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="F273" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="E392" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Dict[any, any]'}</t>
+          <t>{'Dict[any, any]', 'any'}</t>
         </is>
       </c>
       <c r="F392" s="5" t="inlineStr">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="E393" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>Dict[any, any]</t>
         </is>
       </c>
       <c r="F393" s="5" t="inlineStr">
@@ -17312,7 +17312,7 @@
       </c>
       <c r="E527" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'NoneType'}</t>
+          <t>{'NoneType', 'any'}</t>
         </is>
       </c>
       <c r="F527" s="4" t="inlineStr">
@@ -17344,12 +17344,12 @@
       </c>
       <c r="E528" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F528" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>NoneType</t>
+        </is>
+      </c>
+      <c r="F528" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17376,7 @@
       </c>
       <c r="E529" s="2" t="inlineStr">
         <is>
-          <t>{'List', 'empty', 'List[any]'}</t>
+          <t>{'List', 'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F529" s="5" t="inlineStr">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="E533" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'NoneType'}</t>
+          <t>{'NoneType', 'any'}</t>
         </is>
       </c>
       <c r="F533" s="4" t="inlineStr">
@@ -17536,12 +17536,12 @@
       </c>
       <c r="E534" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F534" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>NoneType</t>
+        </is>
+      </c>
+      <c r="F534" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -17568,7 +17568,7 @@
       </c>
       <c r="E535" s="2" t="inlineStr">
         <is>
-          <t>{'List', 'empty', 'List[any]'}</t>
+          <t>{'List', 'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F535" s="5" t="inlineStr">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="E539" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Dict[str, None]'}</t>
+          <t>{'Dict[str, None]', 'empty'}</t>
         </is>
       </c>
       <c r="F539" s="5" t="inlineStr">
@@ -17728,12 +17728,12 @@
       </c>
       <c r="E540" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F540" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Dict[str, None]</t>
+        </is>
+      </c>
+      <c r="F540" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -17760,7 +17760,7 @@
       </c>
       <c r="E541" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'NoneType'}</t>
+          <t>{'NoneType', 'any'}</t>
         </is>
       </c>
       <c r="F541" s="4" t="inlineStr">
@@ -17792,12 +17792,12 @@
       </c>
       <c r="E542" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F542" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>NoneType</t>
+        </is>
+      </c>
+      <c r="F542" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -17824,7 +17824,7 @@
       </c>
       <c r="E543" s="2" t="inlineStr">
         <is>
-          <t>{'List', 'empty', 'List[any]'}</t>
+          <t>{'List', 'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F543" s="5" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="E626" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'OrderedDict'}</t>
+          <t>{'OrderedDict', 'empty'}</t>
         </is>
       </c>
       <c r="F626" s="5" t="inlineStr">
@@ -20512,12 +20512,12 @@
       </c>
       <c r="E627" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F627" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>OrderedDict</t>
+        </is>
+      </c>
+      <c r="F627" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -21792,7 +21792,7 @@
       </c>
       <c r="E667" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[any]'}</t>
+          <t>{'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F667" s="5" t="inlineStr">
@@ -21824,12 +21824,12 @@
       </c>
       <c r="E668" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F668" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F668" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -21856,7 +21856,7 @@
       </c>
       <c r="E669" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'dict'}</t>
+          <t>{'dict', 'empty'}</t>
         </is>
       </c>
       <c r="F669" s="5" t="inlineStr">
@@ -21888,12 +21888,12 @@
       </c>
       <c r="E670" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F670" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>dict</t>
+        </is>
+      </c>
+      <c r="F670" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -22560,7 +22560,7 @@
       </c>
       <c r="E691" s="2" t="inlineStr">
         <is>
-          <t>{'float', 'any'}</t>
+          <t>{'any', 'float'}</t>
         </is>
       </c>
       <c r="F691" s="4" t="inlineStr">
@@ -22592,12 +22592,12 @@
       </c>
       <c r="E692" s="2" t="inlineStr">
         <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F692" s="4" t="inlineStr">
-        <is>
-          <t>Win</t>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="F692" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -23296,7 +23296,7 @@
       </c>
       <c r="E714" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'list'}</t>
+          <t>{'list', 'any'}</t>
         </is>
       </c>
       <c r="F714" s="5" t="inlineStr">
@@ -23328,12 +23328,12 @@
       </c>
       <c r="E715" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F715" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="F715" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -29408,7 +29408,7 @@
       </c>
       <c r="E905" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F905" s="5" t="inlineStr">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="E906" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F906" s="5" t="inlineStr">
@@ -29472,7 +29472,7 @@
       </c>
       <c r="E907" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F907" s="5" t="inlineStr">
@@ -29504,7 +29504,7 @@
       </c>
       <c r="E908" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F908" s="5" t="inlineStr">
@@ -29536,7 +29536,7 @@
       </c>
       <c r="E909" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F909" s="5" t="inlineStr">
@@ -29568,7 +29568,7 @@
       </c>
       <c r="E910" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F910" s="5" t="inlineStr">
@@ -29600,7 +29600,7 @@
       </c>
       <c r="E911" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F911" s="5" t="inlineStr">
@@ -29632,7 +29632,7 @@
       </c>
       <c r="E912" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F912" s="5" t="inlineStr">
@@ -29664,7 +29664,7 @@
       </c>
       <c r="E913" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F913" s="5" t="inlineStr">
@@ -29696,7 +29696,7 @@
       </c>
       <c r="E914" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F914" s="5" t="inlineStr">
@@ -29728,7 +29728,7 @@
       </c>
       <c r="E915" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F915" s="5" t="inlineStr">
@@ -29760,7 +29760,7 @@
       </c>
       <c r="E916" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F916" s="5" t="inlineStr">
@@ -29792,7 +29792,7 @@
       </c>
       <c r="E917" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F917" s="5" t="inlineStr">
@@ -29824,7 +29824,7 @@
       </c>
       <c r="E918" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F918" s="5" t="inlineStr">
@@ -35168,7 +35168,7 @@
       </c>
       <c r="E1085" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'NoneType'}</t>
+          <t>{'NoneType', 'any'}</t>
         </is>
       </c>
       <c r="F1085" s="3" t="inlineStr">
@@ -35200,7 +35200,7 @@
       </c>
       <c r="E1086" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>NoneType</t>
         </is>
       </c>
       <c r="F1086" s="3" t="inlineStr">
@@ -40576,7 +40576,7 @@
       </c>
       <c r="E1254" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F1254" s="5" t="inlineStr">
@@ -40608,12 +40608,12 @@
       </c>
       <c r="E1255" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1255" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Tuple[any]</t>
+        </is>
+      </c>
+      <c r="F1255" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -46496,7 +46496,7 @@
       </c>
       <c r="E1439" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F1439" s="4" t="inlineStr">
@@ -46528,12 +46528,12 @@
       </c>
       <c r="E1440" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F1440" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1440" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -46976,7 +46976,7 @@
       </c>
       <c r="E1454" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F1454" s="4" t="inlineStr">
@@ -47008,12 +47008,12 @@
       </c>
       <c r="E1455" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F1455" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1455" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -48576,7 +48576,7 @@
       </c>
       <c r="E1504" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1504" s="5" t="inlineStr">
@@ -48608,12 +48608,12 @@
       </c>
       <c r="E1505" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1505" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1505" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -49216,7 +49216,7 @@
       </c>
       <c r="E1524" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F1524" s="3" t="inlineStr">
@@ -49248,7 +49248,7 @@
       </c>
       <c r="E1525" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>List[any]</t>
         </is>
       </c>
       <c r="F1525" s="3" t="inlineStr">
@@ -51968,7 +51968,7 @@
       </c>
       <c r="E1610" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'int'}</t>
+          <t>{'int', 'empty'}</t>
         </is>
       </c>
       <c r="F1610" s="4" t="inlineStr">
@@ -52000,7 +52000,7 @@
       </c>
       <c r="E1611" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>int</t>
         </is>
       </c>
       <c r="F1611" s="4" t="inlineStr">
@@ -54336,7 +54336,7 @@
       </c>
       <c r="E1684" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F1684" s="5" t="inlineStr">
@@ -54368,12 +54368,12 @@
       </c>
       <c r="E1685" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1685" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Tuple[any]</t>
+        </is>
+      </c>
+      <c r="F1685" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -55488,7 +55488,7 @@
       </c>
       <c r="E1720" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'int'}</t>
+          <t>{'int', 'any'}</t>
         </is>
       </c>
       <c r="F1720" s="4" t="inlineStr">
@@ -55520,12 +55520,12 @@
       </c>
       <c r="E1721" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F1721" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F1721" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -57664,7 +57664,7 @@
       </c>
       <c r="E1788" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'int'}</t>
+          <t>{'int', 'any'}</t>
         </is>
       </c>
       <c r="F1788" s="4" t="inlineStr">
@@ -57696,12 +57696,12 @@
       </c>
       <c r="E1789" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F1789" s="5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F1789" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -59020,7 +59020,7 @@
       </c>
       <c r="E1831" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'int'}</t>
+          <t>{'int', 'empty'}</t>
         </is>
       </c>
       <c r="F1831" s="5" t="inlineStr">
@@ -59052,12 +59052,12 @@
       </c>
       <c r="E1832" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1832" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F1832" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -59500,7 +59500,7 @@
       </c>
       <c r="E1846" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'callable'}</t>
+          <t>{'callable', 'empty'}</t>
         </is>
       </c>
       <c r="F1846" s="5" t="inlineStr">
@@ -59532,12 +59532,12 @@
       </c>
       <c r="E1847" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1847" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>callable</t>
+        </is>
+      </c>
+      <c r="F1847" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -60268,7 +60268,7 @@
       </c>
       <c r="E1870" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1870" s="5" t="inlineStr">
@@ -60300,12 +60300,12 @@
       </c>
       <c r="E1871" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1871" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1871" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -60332,7 +60332,7 @@
       </c>
       <c r="E1872" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F1872" s="5" t="inlineStr">
@@ -60364,12 +60364,12 @@
       </c>
       <c r="E1873" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F1873" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1873" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -62728,7 +62728,7 @@
       </c>
       <c r="E1947" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'empty', 'bool'}</t>
+          <t>{'bool', 'any', 'empty'}</t>
         </is>
       </c>
       <c r="F1947" s="5" t="inlineStr">
@@ -62760,12 +62760,12 @@
       </c>
       <c r="E1948" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F1948" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1948" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -63112,7 +63112,7 @@
       </c>
       <c r="E1959" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[any]'}</t>
+          <t>{'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F1959" s="3" t="inlineStr">
@@ -63144,7 +63144,7 @@
       </c>
       <c r="E1960" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>List[any]</t>
         </is>
       </c>
       <c r="F1960" s="3" t="inlineStr">
@@ -63240,7 +63240,7 @@
       </c>
       <c r="E1963" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[any]', 'List[any]'}</t>
+          <t>{'List[any]', 'Tuple[any]'}</t>
         </is>
       </c>
       <c r="F1963" s="3" t="inlineStr">
@@ -63272,7 +63272,7 @@
       </c>
       <c r="E1964" s="2" t="inlineStr">
         <is>
-          <t>Tuple[any]</t>
+          <t>List[any]</t>
         </is>
       </c>
       <c r="F1964" s="3" t="inlineStr">
@@ -64232,7 +64232,7 @@
       </c>
       <c r="E1994" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[any]'}</t>
+          <t>{'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F1994" s="5" t="inlineStr">
@@ -64264,12 +64264,12 @@
       </c>
       <c r="E1995" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1995" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F1995" s="5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -67744,7 +67744,7 @@
         </is>
       </c>
       <c r="D2104" s="2" t="n">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E2104" s="2" t="inlineStr">
         <is>
@@ -67752,22 +67752,22 @@
         </is>
       </c>
       <c r="F2104" s="2" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2105">
       <c r="A2105" s="2" t="inlineStr"/>
       <c r="B2105" s="2" t="inlineStr"/>
-      <c r="C2105" s="2" t="inlineStr">
+      <c r="C2105" s="2" t="inlineStr"/>
+      <c r="D2105" s="2" t="inlineStr"/>
+      <c r="E2105" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D2105" s="2" t="n">
-        <v>910.58</v>
-      </c>
-      <c r="E2105" s="2" t="inlineStr"/>
-      <c r="F2105" s="2" t="inlineStr"/>
+      <c r="F2105" s="2" t="n">
+        <v>90.86999999999999</v>
+      </c>
     </row>
     <row r="2106">
       <c r="A2106" s="2" t="inlineStr"/>
@@ -67776,11 +67776,11 @@
       <c r="D2106" s="2" t="inlineStr"/>
       <c r="E2106" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F2106" s="2" t="n">
-        <v>70.19</v>
+        <v>78.64999999999999</v>
       </c>
     </row>
   </sheetData>
